--- a/import.xlsx
+++ b/import.xlsx
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,7 +124,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="7" width="13.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="8" max="8" width="48.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
   </cols>
@@ -481,7 +481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>

--- a/import.xlsx
+++ b/import.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>No</t>
   </si>
@@ -50,27 +50,42 @@
     <t>Deskripsi</t>
   </si>
   <si>
+    <t>LP/153/VIII/ 2018</t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>pencurian-ringan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Aek Batu </t>
+  </si>
+  <si>
+    <t>Dusun Cikampak Pekan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pajak </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tgl 02 Agustus 2018 sekira pukul 21.00 wib di Pajak Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
     <t>LP/156/VIII/2018</t>
   </si>
   <si>
     <t>2018-08-09</t>
   </si>
   <si>
-    <t>pencurian-ringan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desa Aek Batu </t>
-  </si>
-  <si>
     <t>Dusun Simpang Empat</t>
   </si>
   <si>
     <t xml:space="preserve">Bakaran Batu </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Pada hari Kamis Tgl 09 Agustus 2018 sekira pukul 18.30 wib di Areal Perladangan JANA SUJANA Bakran Batu Dusun Simpang Empat Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian buah kelapa sawit sebanyak 11 (sebelas) janjang, Kerugian Rp. 100.000,- (seratus ribu rupiah)</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>2018-08-12</t>
   </si>
   <si>
-    <t>Dusun Cikampak Pekan</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPBU Simpang Karo </t>
   </si>
   <si>
@@ -173,15 +185,42 @@
     <t>Pada hari Senin Tgl 09 April 2018 sekira pukul 12.30 wib di Musholla Dusun Aek Batu Timur Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 1 (satu) unit sepeda motor Honda NC12A1C8FA/T No.Pol BK 4817 ZAC, No.mesin : JFC1E1237149 No.Rangka : MH1JFC115DK236059 An. Herdianto</t>
   </si>
   <si>
+    <t>LP/208/XI/2018</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>Dusun Cinta Makmur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Umum </t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tgl 22 Nopember 2018 sekira pukul 21.00 wib di Jalan Umum Dusun Cinta Makmur Desa Aek Batu Kec.Torgamba, telah terjadi tindak pidana Penganiayaan</t>
+  </si>
+  <si>
+    <t>LP/217/XII/2018</t>
+  </si>
+  <si>
+    <t>2018-12-22</t>
+  </si>
+  <si>
+    <t>Dusun Cikampak Permai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kantor KSU Ria Mandiri Jaya </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 22 Desember 2018 sekira pukul 10.00 wib di Kantor KSU Ria Mandiri Jaya Dusun Cikampak Permai Desa Aek Batu Kec.Torgamba Kb.Labuhanbatu Selatan, telah terjadi tindak pidana penggelapan dalam jabatan</t>
+  </si>
+  <si>
     <t>LP/26/I/2018</t>
   </si>
   <si>
     <t>2018-01-29</t>
   </si>
   <si>
-    <t>Dusun Cinta Makmur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blok B 1 </t>
   </si>
   <si>
@@ -203,6 +242,18 @@
     <t xml:space="preserve">Pada hari Selasa Tgl 20 Februari 2018 sekira pukul 11.00 wib di Ruko Aneka Ragam Dusun  Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 212 (dua ratus dua belas) buah tabung gas elfiji 3 Kg </t>
   </si>
   <si>
+    <t>LP/06/XII/2017</t>
+  </si>
+  <si>
+    <t>2017-12-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpang Tugu </t>
+  </si>
+  <si>
+    <t>Pada hari Rabu tgl 27 Desember 2017 sekira pukul 13.30 wib di Simpang Tugu Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tinda pidana narkotika jenis sabu</t>
+  </si>
+  <si>
     <t>LP/07/XII/2017</t>
   </si>
   <si>
@@ -218,6 +269,36 @@
     <t>Pada hari Jumat Tgl 29 Desember 2017 sekira pukul 10.48 wib di Kebun PT Wisu Indo Jaya Blok A Kampung Menanti Dusun Pinang Awan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 5 (lima) janjang buah kelapa sawit</t>
   </si>
   <si>
+    <t>LP/134/VI/2018</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>Dusun Kandang Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorong Sidorukun </t>
+  </si>
+  <si>
+    <t>Pada hari Jumat Tgl 29 Juni 2018 sekira pukul 20.30 wib di Lorong Sidorukun Dusun Kandang Motor Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
+    <t>LP/137/VII/2018</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>Dusun Simpang Epat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Batang Gogar </t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tgl 05 Juli 2018 sekira pukul 15.30 wib di Jalan Batang Gogar Dusun Simpang Epat Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
     <t>LP/144/VII/2018</t>
   </si>
   <si>
@@ -233,16 +314,79 @@
     <t>Pada hari Kamis Tgl 19 Juli 2018 sekira pukul 21.30 wib di Samping Gardu Listrik Dusun Asam Jawa Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana “ Mendah hasil usaha perkebunan yang diperoleh dari hasil penjarahan atau pencurian “</t>
   </si>
   <si>
+    <t>LP/148/VII/2018</t>
+  </si>
+  <si>
+    <t>2018-07-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budi Utama </t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tgl 22 Juli 2018 sekira pukul 10.00 wib di Budi Utama Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu selatan, telah terjadi tindak pidana penggelapan 1 (satu) unit sepeda motor Honda Beat  warna hitam No.Polisi BK 5160 YBF, No.Rangka : MH1JFS110FK172645 No.mesin : JFS1E-1170590 An. Muhammad Husni Pohan tahun 2015</t>
+  </si>
+  <si>
     <t>LP/111/V/2018</t>
   </si>
   <si>
     <t>2018-05-26</t>
   </si>
   <si>
-    <t xml:space="preserve">Jalan LintasSumatera </t>
-  </si>
-  <si>
-    <t>Pada hari Sabtu Tgl 26 Mei 2018 sekira pukul 15.30 wib di Jalan LintasSumatera Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian dengan kekerasan</t>
+    <t xml:space="preserve">Jalan Lintas Sumatera </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 26 Mei 2018 sekira pukul 15.30 wib di Jalan Lintas Sumatera Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian dengan kekerasan</t>
+  </si>
+  <si>
+    <t>LP/112/V/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warnet Golden </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 26 Mei 2018 sekira pukul 19.45 wib di Warnet Golden Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
+    <t>LP/118/VI/2018</t>
+  </si>
+  <si>
+    <t>2001-06-01</t>
+  </si>
+  <si>
+    <t>Dusun Cikampak Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPBU 13214103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada hari Jumat Tgl 01 Juni 20018 sekira pukul 08.00 wib di  SPBU 13214103 Dusun Cikampak Tengah Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian uang </t>
+  </si>
+  <si>
+    <t>LP/129/VI/2018</t>
+  </si>
+  <si>
+    <t>2018-06-24</t>
+  </si>
+  <si>
+    <t>Dusun Pir Bun C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ram </t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tgl 24 Juni 2018 sekira pukul 01.30 wib di Ram Dusun Pir Bun C Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana narkotika jenis sabu</t>
+  </si>
+  <si>
+    <t>LP/64/III/2018</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gang Pihara </t>
+  </si>
+  <si>
+    <t>Pada hari jumat tanggal 05 maret 2018 sekira pukul 07.00 wib di Gang Pihara Dusun Cinta Makmur Desa Aek Batu Kec. Torgamba Kab. Labuhanbatu Selatan, Telah terjadi tindak pidana penggelapan 1 (satu) unit sepeda motor Yamaha dengan No Pol :BK 2173 ZAJ, No Mesin :E3R21363997, No Rangka :MH3SE8890HJ182903, Warna Hitam, Tahun 2017</t>
   </si>
   <si>
     <t>LP/68/III/2018</t>
@@ -278,6 +422,24 @@
     <t>Pada hari Minggu Tgl 18 Maret 2018 sekira pukul 07.00 wib di Tio-tio Blok A 48 Dusun Kampung Mangga Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi pencurian buah kelapa sawit</t>
   </si>
   <si>
+    <t>LP/99/V/2018</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Aek Raso </t>
+  </si>
+  <si>
+    <t>Dusun Cemara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasar IX </t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tgl 03 Mei 2018 sekira pukul 09.15 wib di Pasar IX Dusun Cemara Desa Aek Raso Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
     <t>LP/102/V/2018</t>
   </si>
   <si>
@@ -302,7 +464,34 @@
     <t>Pada hari Senin Tgl 14 Mei 2018 sekira pukul 13.00 wib di PT.Wisu Indo Jaya Blok A Petak II Dusun Cinta Makmur Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian buah kelapa sawit</t>
   </si>
   <si>
-    <t>LP/ 182/IX/2018</t>
+    <t>LP/ 205/XI/2018</t>
+  </si>
+  <si>
+    <t>2018-01-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Mulia </t>
+  </si>
+  <si>
+    <t>Pada hari Selasa Tgl 06 Nopember 2018 sekira pukul 10.00 wib di Belakang Gudang AC Jalan Mulia Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labusel, telah terjadi tindak pidana narkotika jenis sabu</t>
+  </si>
+  <si>
+    <t>LP/207/XI/2018</t>
+  </si>
+  <si>
+    <t>2018-11-13</t>
+  </si>
+  <si>
+    <t>Dusun Teluk Pinang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPBU </t>
+  </si>
+  <si>
+    <t>Pada hari Selasa Tgl 13 November 2018 sekira pukul 14.30 wib di SPBU Dusun Teluk Pinang Desa Asam Jawa Kec.Torgamba Kab.abuhanbatu Seatan, telah terjadi tindak pidana penggelapan 1 (satu) unit mobil Dump Truck warna kuning dinding 20 No.Polisi KH 8397 KB, No.Rangka : MHMFE75PFHK003668 No.Mesin : 4D34TR56549 An. CV Muia Trans dan pemilik mobil An. HUMAR NUR SALIM, Kerugian Rp. 400.000.000,- (Empat ratus ribu rupiah)</t>
+  </si>
+  <si>
+    <t>LP/183/IX/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Toko Mitra Ponsel </t>
@@ -311,7 +500,7 @@
     <t>Pada hari Selasa Tgl 25 September 218 sekira pukul 21.45 wib di Toko Mitra Ponsel Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 1 (satu) buah Handpone merk Oppo type F9</t>
   </si>
   <si>
-    <t>LP/ 186/X/2018</t>
+    <t>LP/ 187/X/2018</t>
   </si>
   <si>
     <t>2018-09-29</t>
@@ -326,7 +515,7 @@
     <t>Pada hari Sabtu Tgl 29 September 2018 sekira puku 15.00 wib di PT. Nagamas Agro Mulia Kebun Cikampak Dusun Pasar XII Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian buah kelapa sawit sebanyak 50 ( lima puluh) janjang</t>
   </si>
   <si>
-    <t>LP/ 187/X/2018</t>
+    <t>LP/ 188/X/2018</t>
   </si>
   <si>
     <t>2018-10-02</t>
@@ -335,13 +524,7 @@
     <t>Pada hari Selasa Tgl 02 Oktober 2018 sekira pukul 17.30 wib di Blok A Tio-tio Dusun Kampung Mangga Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian berondoan buah kelapa sawit</t>
   </si>
   <si>
-    <t>LP/ 188/X/2018</t>
-  </si>
-  <si>
-    <t>Pada hari Selasa Tg 02 oktober 2018 sekira pukul 11.00 wib di Blok A Tio-tio Dusun Kampung Mangga Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Seatan, telah terjadi tindak pidana pencurian berondolan buah sawit</t>
-  </si>
-  <si>
-    <t>LP/171/VIII/2018</t>
+    <t>LP/172/IX/2018</t>
   </si>
   <si>
     <t>2018-08-31</t>
@@ -353,7 +536,7 @@
     <t>Pada hari Jumat Tgl 31 Agustus 2018 sekira pukul 18.00 wib di Blok C Dusun Cinta Makmur Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian berondolan buah sawit</t>
   </si>
   <si>
-    <t>LP/176/IX/2018</t>
+    <t>LP/177/IX/2018</t>
   </si>
   <si>
     <t>2018-09-10</t>
@@ -371,7 +554,7 @@
     <t>Pada hari Senin Tgl 10 September 2018 sekira pukul 17.00 wib di Ladang Perseorangan Dusun Lantosan Desa Rasau Kec. Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian buah kelapa sawit ,Kerugian Rp. 229.000,- (Dua ratus dua puluh sembilan ribu rupiah)</t>
   </si>
   <si>
-    <t>LP/177/IX/2018</t>
+    <t>LP/178/IX/2018</t>
   </si>
   <si>
     <t>Pada hari Senin Tgl 10 September 2018 sekira pukul 19.00 wib di Ladang Perseorangan Dusun Lantosan Desa Rasau Kec. Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian buah kelapa sawit,Kerugian Rp. 5.400.000,- (Lima Juta empat ratus ribu rupiah)</t>
@@ -422,6 +605,33 @@
     <t>Pada hari Jumat Tgl 25 Januari 2019 Sekira pukul 15.00 wib di Samping Tembok PKS Cindur PT. Torganda Dusun Cindur Desa Torganda Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian barang-barang berupa besi pipa dan besi plat</t>
   </si>
   <si>
+    <t>LP/ 13 / I / 2019 Tgl 26 Januari 2019</t>
+  </si>
+  <si>
+    <t>2019-01-26</t>
+  </si>
+  <si>
+    <t>Dusun Aek Batu Selatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depan PMKS MAB </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 26 Januari 2019 sekira pukul 04.30 wib di Depan PMKS MAB Dusun Aek Batu Selatan Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penggelapan 15 ( lima belas) janjang buah kelapa sawit</t>
+  </si>
+  <si>
+    <t>LP/ 18 / II / 2019 Tgl 07 Februari 2019</t>
+  </si>
+  <si>
+    <t>2019-02-07</t>
+  </si>
+  <si>
+    <t>Dusun Sumber jo I Pasar 1A</t>
+  </si>
+  <si>
+    <t>Pada hari Kamis Tgl 07 Februari 2019 sekira pukul 00.15 wib di Jalan Umum Dusun Sumber jo I Pasar 1A Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana narkotika jenis sabu</t>
+  </si>
+  <si>
     <t>LP/ 23/ II / 2019</t>
   </si>
   <si>
@@ -440,6 +650,30 @@
     <t>Pada hari Senin Tgl 11 Januari 2019 Sekira pukul 19:30 wib Di Dusun Perumahan Desa Bangai Kec. Torgamba Kab. Labuhanbatu Selatan telah terjadi pencurian ternak kambing dengan cara mengambil kambing Kerugian Rp. 2.000.000; (Dua Juta Rupiah)</t>
   </si>
   <si>
+    <t>LP/219/XII/2018</t>
+  </si>
+  <si>
+    <t>2018-12-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kafe Melly </t>
+  </si>
+  <si>
+    <t>Pada hari Selasa Tgl 25 Desember 2018 sekira pukul 00.45 wib di Kafe Melly Dusun Cikampak Permai Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, yelah terjadi tindak pidana secara bersama-sama melakukan penganiayaan terhadap orang atau barang atau penganiayaan</t>
+  </si>
+  <si>
+    <t>LP/108 /VI/RES.1.6/ 2019</t>
+  </si>
+  <si>
+    <t>2019-06-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpang Sopo Godang </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 29 Juni 2019 sekira pukul 23.30 wib di Simpang Sopo Godang Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, Telah terjadi penganiayaan Secara bersama-sama</t>
+  </si>
+  <si>
     <t xml:space="preserve">LP/113/VI/RES 4,2 /2019 </t>
   </si>
   <si>
@@ -452,21 +686,84 @@
     <t>Pada Hari Jumat Tgl 21 Juni 2019 sekira Pukul 04.30 wib di Depan Kios Pajak Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah Terjadi Tindak Pidana Pencurian Cabe</t>
   </si>
   <si>
+    <t>LP/120/VII/RES 1.24/ 2019</t>
+  </si>
+  <si>
+    <t>2019-07-12</t>
+  </si>
+  <si>
+    <t>Dusun Aek Batu Utara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perumahan </t>
+  </si>
+  <si>
+    <t>Pada hari Jumat Tgl 12 Juli 2019 sekira pukul 11.00 wib di Perumahan Dusun Aek Batu Utara Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah Terjadi tindak Pidana Pengancaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/121/VII/RES 1.1 /2019 </t>
+  </si>
+  <si>
+    <t>2019-07-14</t>
+  </si>
+  <si>
+    <t>Dusun Bakaran Batu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warung Nasi Bunda </t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tgl 14 Juli 2019 sekira pukul 08.00 Wib di Warung Nasi Bunda Dusun Bakaran Batu Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah Terjadi Tindak Pidana Pengrusakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/ 89/ V /RES.4.2 / 2019 </t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>Pada hari Jumat Tgl 31 Mei 2019 sekira pukul 20.00 wib di Jalan Lintas Sumatera Dusun Cinta Makmur Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana narkotika jenis ganja</t>
+  </si>
+  <si>
     <t xml:space="preserve">LP/96/VI/RES.1.8 / 2019 </t>
   </si>
   <si>
     <t>2019-05-13</t>
   </si>
   <si>
-    <t>Dusun Kandang Motor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parkiran Masjid </t>
   </si>
   <si>
     <t>Pada hari Senin Tgl 13 Mei 2019 sekira pukul 15.45 wib di Parkiran Masjid Dusun Kandang Motor Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana Pencurian 1 (satu) unit sepeda motor Supra 125no.Pol BK 2029 ZAF</t>
   </si>
   <si>
+    <t>LP/99/VI/RES.1.6/ 2019</t>
+  </si>
+  <si>
+    <t>2019-06-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cafe Berta </t>
+  </si>
+  <si>
+    <t>Pada hari hari Minggu Tgl 16 Juni 2019 sekira pukul 00.10 wib di Cafe Berta Dusun Aek Batu Utara Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/100/VI/RES.4.2 / 2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Sei Meranti </t>
+  </si>
+  <si>
+    <t>Dusun Bangun Raya Sari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doorsmer Fajar </t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tgl 16 Juni 2019 sekira pukul 16.00 wib di Doorsmer Fajar Dusun Bangun Raya Sari Desa Sei Meranti Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana Narkotika Jenis Sabu</t>
+  </si>
+  <si>
     <t xml:space="preserve">LP / 26 / II / 2019 </t>
   </si>
   <si>
@@ -479,6 +776,18 @@
     <t>Pada hari Rabu tgl 27 Februari 2019 sekira pukul 05.00 wib di Depan Rumah Makan Sileman Dusun Simpang Empat Desa Aek Batu Kec.Torgamba Akb.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 1 (satu) buah baterai mobil Tangki Fuso</t>
   </si>
   <si>
+    <t xml:space="preserve">LP/ 40 / III / 2019 </t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Perumahan Griya Nus III RT 5 </t>
+  </si>
+  <si>
+    <t>Pada hari Senin Tgl 11 Maret 2019 sekira pukul 05.30 wib di Jalan Perumahan Griya Nus III RT 5 Dusun Simpang Empat Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah penemuan mayat</t>
+  </si>
+  <si>
     <t xml:space="preserve">LP/ 41 / III / 2019 </t>
   </si>
   <si>
@@ -494,43 +803,109 @@
     <t>Pada hari Minggu Tgl 10 Maret 2019 sekira pukul 15.00 wib di Kebun TH Dusun Milano Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana Pencurian 40 (empat puluh) janjang buah kelapa sawit</t>
   </si>
   <si>
-    <t xml:space="preserve">LP/146/IX/RES.1.8/2019 </t>
+    <t>LP /  74 / IV / 2019</t>
+  </si>
+  <si>
+    <t>2019-04-24</t>
+  </si>
+  <si>
+    <t>Pada Hari Rabu Tgl 24 April 2019 sekira pukul 06.00 wib di Pajak Dusun Cikampak Pekan Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, Telah terjadi tindak pidnaa penggelapan 1 (satu) unit Sepeda Motor Honda Beat warna Hijau Putih No.Pol BM 3676 WP No.Mesin : JFD2E-2949860 No.Rangka : MH1JFD227EK954825</t>
+  </si>
+  <si>
+    <t>LP/184/XI/2019</t>
+  </si>
+  <si>
+    <t>2019-01-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpang Milano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada hari jumat tanggal 08 Nopember 2019 sekira pukul 21.00 wib. Di jalan umum simpang milano dusun pinang awan desa aek batu kec. Torgamba kab. Labuhanbatu selatan telah terjadi tindak pidana penganiayaan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/147/IX/RES.4.2/2019 </t>
   </si>
   <si>
     <t>2019-09-07</t>
   </si>
   <si>
-    <t>Dusun Al Amin</t>
-  </si>
-  <si>
     <t xml:space="preserve">PT. Wisu Indo Jaya Blo II D </t>
   </si>
   <si>
-    <t>Pada hari Sabtu Tgl 07 September 2019 sekira pukul 14.00 wib di  PT. Wisu Indo Jaya Blo II D Dusun Al Amin Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana Pencurian 2 (dua) Goni Berondolan buah kelapa sawit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP/18/I/RES.1.8./2021 </t>
+    <t>Pada hari Sabtu Tgl 07 September 2019 sekira pukul 14.00 wib di  PT. Wisu Indo Jaya Blo II D Dusun Al-Amin Desa Asam Jawa Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana Pencurian 2 (dua) Goni Berondolan buah kelapa sawit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/149/IX/2019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Torgamba </t>
+  </si>
+  <si>
+    <t>Dusun Matahari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perumahan PKS Torgamba </t>
+  </si>
+  <si>
+    <t>Pada hari Sabtu Tgl 07 September 2019 sekra pukul 16.00 wib di Perumahan PKS Torgamba Dusun Matahari Desa Torgamba Kec. Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penggelapan 1 (satu) unit Sepeda motor Yamaha Vixion warna hitam No.Pol BM 6263 WL, No,Rangka : MH33C1205DK1940418, No.Mesin : 3C1-1190105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/152/IX/RES.1.8/2019 </t>
+  </si>
+  <si>
+    <t>2019-09-22</t>
+  </si>
+  <si>
+    <t>Dusun Simpang IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depan Warung Robet Hutagaol </t>
+  </si>
+  <si>
+    <t>Pada hari Minggu Tgl 22 September 2019 sekira pukul 20.00 wib di Depan Warung Robet Hutagaol Dusun Simpang IV Desa Aek Batu Kec.Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana penganiayaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/12/I/RES.1.6/2020 </t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Parungan </t>
+  </si>
+  <si>
+    <t>Dusun Kampung Banten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempat Parkir Halaman Rumah </t>
+  </si>
+  <si>
+    <t>Pada Hari Minggu tgl 05 Januari 2020 , sekira pukul 21.00 wib di tempat parkir Halaman Rumah Dusun Kampung Bantan Desa Pangarungan Kec Torgamba . Telah terjadi tindak pidana pencurian 1( satu) unit Sp . Motor Yamaha Vixion Bk 2204 Yad , No Angka : MH33C1004AK403697,No Mesin :3c1,404815,  Kerugian Rp. 16.000.000,- ( Enam belas juta rupiah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/96/V/RES.1.8./2020 </t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Aek Batu  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perumahan Pulo Intan </t>
+  </si>
+  <si>
+    <t>Pada har Kamis Tgl 05 Maret 2020 sekira pukul 12.30 wib di Perumahan Pulo Intan Dusun Cinta Makmur Desa Aek Batu  Kec. Torgamba Kab. Labusel, telah terjadi tindak pidana pencurian gelang emas london 40 Gram , gelang emas keroncong 5 mayam , uang tunai Rp. 2.000.000Kerugian Rp. 45.000.000,- ( Empat Puluh Lima Juta Rupiah)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP/14/I/RES.1.8./2021 </t>
   </si>
   <si>
     <t xml:space="preserve">Blok A Kebun PT.Wisu Indo Jaya </t>
   </si>
   <si>
     <t xml:space="preserve">Pada hari Sabtu Tgl 23 Januari  2021 sekira pukul 11.30 wib di Blok A Kebun PT.Wisu Indo Jaya Dusun Cinta Makmur Desa Asam Jawa Kec.Torgamba Kab.Labuhanbtu Selatan,telah terjadi tindak pidana Pencurian 6 (enam)Tros Buah Kelapa Sawit  </t>
-  </si>
-  <si>
-    <t>LP/43/II/RES.1.8./2021</t>
-  </si>
-  <si>
-    <t>2021-02-24</t>
-  </si>
-  <si>
-    <t>Dusun Simpang 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl Mutiara Kantor KUA Cikampak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pada hari Rabu Tgl 24 Februari 2021 sekira pukul 07.30 wib di Jl Mutiara Kantor KUA Cikampak Dusun Simpang 4 Desa Aek Batu Kec. Torgamba Kab.Labuhanbatu Selatan, telah terjadi tindak pidana pencurian 2 (dua) buah Laptop Merk Tosiba Intel Core I3 No. 5C104381W dan Acer Intel Core I3 Type 4741 </t>
   </si>
 </sst>
 </file>
@@ -866,7 +1241,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +1310,7 @@
         <v>16</v>
       </c>
       <c r="I2">
-        <v>100000</v>
+        <v>216510</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -958,25 +1333,25 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>100000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3">
-        <v>50000</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -984,16 +1359,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1005,13 +1380,13 @@
         <v>28</v>
       </c>
       <c r="I4">
-        <v>600000</v>
+        <v>50000</v>
       </c>
       <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1019,31 +1394,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5">
+        <v>318000000</v>
+      </c>
+      <c r="J5" t="s">
         <v>33</v>
-      </c>
-      <c r="I5">
-        <v>600000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -1057,31 +1432,31 @@
         <v>35</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>37</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6">
+        <v>1139455</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
-      </c>
-      <c r="I6">
-        <v>600000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1089,34 +1464,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7">
+        <v>1457083</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>43</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7">
-        <v>600000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1124,34 +1499,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I8">
+        <v>1330625</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>49</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>600000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1159,34 +1534,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>54</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="I9">
+        <v>1579902</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>55</v>
-      </c>
-      <c r="I9">
-        <v>600000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1194,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1206,22 +1581,22 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>570408</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
-      </c>
-      <c r="I10">
-        <v>600000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1229,10 +1604,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1241,22 +1616,22 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>64</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11">
+        <v>1398714</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
-      </c>
-      <c r="I11">
-        <v>600000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1264,34 +1639,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12">
+        <v>1589066</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>69</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12">
-        <v>600000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1299,10 +1674,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1311,22 +1686,22 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13">
+        <v>1111052</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13">
-        <v>600000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1334,34 +1709,34 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14">
+        <v>583319</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
         <v>78</v>
-      </c>
-      <c r="I14">
-        <v>374000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1369,34 +1744,34 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>74</v>
+      <c r="G15">
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I15">
-        <v>374000</v>
+        <v>582568</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1404,34 +1779,34 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I16">
-        <v>374000</v>
+        <v>1584800</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1439,34 +1814,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>374000</v>
+        <v>136252</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1474,34 +1849,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>74</v>
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I18">
-        <v>374000</v>
+        <v>523387</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1509,34 +1884,34 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I19">
-        <v>374000</v>
+        <v>204866</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1544,10 +1919,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -1556,22 +1931,22 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>374000</v>
+        <v>503451</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1579,7 +1954,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -1588,25 +1963,25 @@
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I21">
-        <v>374000</v>
+        <v>1393334</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1614,34 +1989,34 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I22">
-        <v>374000</v>
+        <v>402032</v>
       </c>
       <c r="J22" t="s">
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1649,34 +2024,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
+        <v>117</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I23">
-        <v>374000</v>
+        <v>1076782</v>
       </c>
       <c r="J23" t="s">
         <v>17</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1684,34 +2059,34 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I24">
-        <v>229000</v>
+        <v>1133538</v>
       </c>
       <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1719,34 +2094,34 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I25">
-        <v>5400000</v>
+        <v>374000</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1754,34 +2129,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I26">
-        <v>72000</v>
+        <v>787748</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1789,34 +2164,34 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>74</v>
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I27">
-        <v>72000</v>
+        <v>1829253</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1824,34 +2199,34 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" t="s">
-        <v>74</v>
+        <v>138</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I28">
-        <v>72000</v>
+        <v>522870</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1859,34 +2234,34 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I29">
-        <v>2000000</v>
+        <v>944907</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1894,34 +2269,34 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I30">
-        <v>2000000</v>
+        <v>1515760</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1929,34 +2304,34 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2000000</v>
+        <v>551353</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1964,34 +2339,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>74</v>
+        <v>155</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I32">
-        <v>2000000</v>
+        <v>400000000</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1999,34 +2374,34 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I33">
-        <v>2000000</v>
+        <v>1519727</v>
       </c>
       <c r="J33" t="s">
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2034,34 +2409,34 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" t="s">
-        <v>74</v>
+        <v>163</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I34">
-        <v>2000000</v>
+        <v>1054539</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2069,34 +2444,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" t="s">
-        <v>74</v>
+        <v>27</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="I35">
-        <v>2000000</v>
+        <v>1860321</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2104,34 +2479,1014 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
       <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36">
+        <v>1205784</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37">
+        <v>229000</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>176</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38">
+        <v>5400000</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39">
+        <v>72000</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40">
+        <v>100897</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41">
+        <v>1847383</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42">
+        <v>1209777</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" t="s">
+        <v>203</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1526780</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
+      </c>
+      <c r="I44">
+        <v>2000000</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
         <v>14</v>
       </c>
-      <c r="F36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I36">
-        <v>2000000</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" t="s">
-        <v>171</v>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45">
+        <v>238746</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>217</v>
+      </c>
+      <c r="I46">
+        <v>562249</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>221</v>
+      </c>
+      <c r="I47">
+        <v>939509</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>226</v>
+      </c>
+      <c r="I48">
+        <v>979384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49">
+        <v>903286</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>794016</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51">
+        <v>1097278</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>242</v>
+      </c>
+      <c r="I52">
+        <v>1800501</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>247</v>
+      </c>
+      <c r="I53">
+        <v>1870995</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>251</v>
+      </c>
+      <c r="I54">
+        <v>514320</v>
+      </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>255</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1160202</v>
+      </c>
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+      <c r="C56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>260</v>
+      </c>
+      <c r="I56">
+        <v>533868</v>
+      </c>
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>262</v>
+      </c>
+      <c r="C57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57">
+        <v>1440817</v>
+      </c>
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>267</v>
+      </c>
+      <c r="I58">
+        <v>813622</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" t="s">
+        <v>270</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>271</v>
+      </c>
+      <c r="I59">
+        <v>1314853</v>
+      </c>
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>270</v>
+      </c>
+      <c r="D60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" t="s">
+        <v>275</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60">
+        <v>267945</v>
+      </c>
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>280</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>281</v>
+      </c>
+      <c r="I61">
+        <v>1000463</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" t="s">
+        <v>285</v>
+      </c>
+      <c r="F62" t="s">
+        <v>286</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>287</v>
+      </c>
+      <c r="I62">
+        <v>16000000</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>292</v>
+      </c>
+      <c r="I63">
+        <v>45000000</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>295</v>
+      </c>
+      <c r="I64">
+        <v>363483</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
